--- a/Experiments/230621_fdh_test/hand_mix.xlsx
+++ b/Experiments/230621_fdh_test/hand_mix.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryancardiff/Documents/GitHub/WHISPR/Experiments/230621_fdh_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCA3D6C-B02C-E347-BC38-E0E893E33C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F01A5E-0179-4A42-80B1-8515F7A53A5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1040" windowWidth="27640" windowHeight="16240" activeTab="1" xr2:uid="{10763DED-117C-F448-BE2A-14C42F2F1FB7}"/>
+    <workbookView xWindow="1080" yWindow="1040" windowWidth="27640" windowHeight="16240" activeTab="3" xr2:uid="{10763DED-117C-F448-BE2A-14C42F2F1FB7}"/>
   </bookViews>
   <sheets>
     <sheet name="230619" sheetId="1" r:id="rId1"/>
     <sheet name="230626" sheetId="2" r:id="rId2"/>
+    <sheet name="062823" sheetId="3" r:id="rId3"/>
+    <sheet name="063023" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="61">
   <si>
     <t>fdh_Cm</t>
   </si>
@@ -192,7 +194,34 @@
     <t>200x</t>
   </si>
   <si>
-    <t>Make mastermix for 8 rxns (150), then split into 22.5ul rxns</t>
+    <t>HEPES</t>
+  </si>
+  <si>
+    <t>Make mastermix for 8 rxns (200), then split into 22.5ul rxns</t>
+  </si>
+  <si>
+    <t>AMP</t>
+  </si>
+  <si>
+    <t>Make mastermix for 4 rxns (100), then split into 22.5ul rxns</t>
+  </si>
+  <si>
+    <t>50mM HEPES pH 8, not 5mM!</t>
+  </si>
+  <si>
+    <t>NAD+</t>
+  </si>
+  <si>
+    <t>fdh starkeya novella from previous purelink</t>
+  </si>
+  <si>
+    <t>~ 10nM in 5ul in PCR tubes</t>
+  </si>
+  <si>
+    <t>testing +/- enzyme for 2.5 hr reaction</t>
+  </si>
+  <si>
+    <t>also running NADPH and NADH standards at 1/.5/.25 mM</t>
   </si>
 </sst>
 </file>
@@ -280,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -302,11 +331,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -626,7 +654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D3AC4F2-CF72-FF48-8DE6-B75DBC60A46B}">
   <dimension ref="A3:N24"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="131" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="156" workbookViewId="0">
       <selection activeCell="B16" sqref="B16:N24"/>
     </sheetView>
   </sheetViews>
@@ -963,10 +991,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE9EB66-E5BA-1140-AAE2-6CFA8DDEE547}">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="132" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14:F16"/>
+    <sheetView zoomScale="163" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1113,7 +1141,7 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1124,15 +1152,16 @@
         <v>1000</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <f>10*25/22.5</f>
+        <v>11.111111111111111</v>
       </c>
       <c r="E9">
         <f>25*D9/C9</f>
-        <v>0.25</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="F9">
         <f>E9*8</f>
-        <v>2</v>
+        <v>2.2222222222222223</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -1143,15 +1172,25 @@
         <v>50</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <f>1*25/22.5</f>
+        <v>1.1111111111111112</v>
       </c>
       <c r="E10">
         <f>25*D10/C10</f>
-        <v>0.5</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="F10">
         <f>E10*8</f>
-        <v>4</v>
+        <v>4.4444444444444446</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11">
+        <f>(25*8)-SUM(F9:F10)</f>
+        <v>193.33333333333334</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1165,7 +1204,7 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -1176,15 +1215,15 @@
         <v>25</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="E14">
         <f>25*D14/C14</f>
-        <v>1</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="F14">
         <f>E14*8</f>
-        <v>8</v>
+        <v>8.8800000000000008</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -1192,18 +1231,18 @@
         <v>40</v>
       </c>
       <c r="C15">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="E15">
         <f>25*D15/C15</f>
-        <v>0.25</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="F15">
         <f t="shared" ref="F15:F16" si="1">E15*8</f>
-        <v>2</v>
+        <v>4.4400000000000004</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -1211,18 +1250,27 @@
         <v>43</v>
       </c>
       <c r="C16" s="10">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="E16">
         <f>25*D16/C16</f>
-        <v>0.25</v>
+        <v>2.7750000000000004E-2</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0.22200000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17">
+        <f>(25*8)-SUM(F15:F16)</f>
+        <v>195.33799999999999</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
@@ -1335,14 +1383,14 @@
       <c r="A24" t="s">
         <v>15</v>
       </c>
-      <c r="J24" s="12" t="s">
+      <c r="J24" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12" t="s">
+      <c r="K24" s="11"/>
+      <c r="L24" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="M24" s="12"/>
+      <c r="M24" s="11"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -1353,37 +1401,435 @@
       <c r="A26" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B29" s="5">
+        <v>1</v>
+      </c>
+      <c r="C29" s="5">
+        <v>2</v>
+      </c>
+      <c r="D29" s="5">
+        <v>3</v>
+      </c>
+      <c r="E29" s="5">
+        <v>4</v>
+      </c>
+      <c r="F29" s="5">
+        <v>5</v>
+      </c>
+      <c r="G29" s="5">
+        <v>6</v>
+      </c>
+      <c r="H29" s="5">
+        <v>7</v>
+      </c>
+      <c r="I29" s="5">
+        <v>8</v>
+      </c>
+      <c r="J29" s="5">
+        <v>9</v>
+      </c>
+      <c r="K29" s="5">
+        <v>10</v>
+      </c>
+      <c r="L29" s="5">
+        <v>11</v>
+      </c>
+      <c r="M29" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" t="s">
+        <v>47</v>
+      </c>
+      <c r="F36" t="s">
+        <v>46</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>48</v>
+      </c>
+      <c r="I36" t="s">
+        <v>48</v>
+      </c>
+      <c r="J36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" t="s">
+        <v>46</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>48</v>
+      </c>
+      <c r="I37" t="s">
+        <v>48</v>
+      </c>
+      <c r="J37" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="J24:K24"/>
     <mergeCell ref="L24:M24"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="L34:M34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D0BBF1-423D-204F-B70C-28EC6BEB8E82}">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView zoomScale="192" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2">
+        <v>25</v>
+      </c>
+      <c r="D2">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="E2">
+        <f>25*D2/C2</f>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="F2">
+        <f>E2*4</f>
+        <v>4.4400000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
+      <c r="D3">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="E3">
+        <f>25*D3/C3</f>
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F5" si="0">E3*4</f>
+        <v>2.2200000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="10">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="E4">
+        <f>25*D4/C4</f>
+        <v>0.27750000000000002</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="10">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="E5">
+        <f>25*D5/C5</f>
+        <v>0.27750000000000002</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6">
+        <f>(25*4)-SUM(F2:F5)</f>
+        <v>91.12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>1000</v>
+      </c>
+      <c r="D10">
+        <f>10*25/22.5</f>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="E10">
+        <f>25*D10/C10</f>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="F10">
+        <f>E10*4</f>
+        <v>1.1111111111111112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>50</v>
+      </c>
+      <c r="D11">
+        <f>1*25/22.5</f>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="E11">
+        <f>25*D11/C11</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ref="F11" si="1">E11*4</f>
+        <v>2.2222222222222223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12">
+        <f>(25*4)-SUM(F9:F11)</f>
+        <v>96.666666666666671</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{201B7C37-8744-B747-ACF5-EA41742F14D7}">
+  <dimension ref="A3:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="162" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>1000</v>
+      </c>
+      <c r="D4">
+        <f>15*1.111</f>
+        <v>16.664999999999999</v>
+      </c>
+      <c r="E4">
+        <f>25*D4/C4</f>
+        <v>0.41662500000000002</v>
+      </c>
+      <c r="F4">
+        <f>E4*4</f>
+        <v>1.6665000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <f>1*25/22.5</f>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="E5">
+        <f>25*D5/C5</f>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5" si="0">E5*4</f>
+        <v>1.1111111111111112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6">
+        <f>(25*4)-SUM(F3:F5)</f>
+        <v>97.222388888888887</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>